--- a/Assets/02Script/Manager/ItemManager/Sheet/ItemSheet.xlsx
+++ b/Assets/02Script/Manager/ItemManager/Sheet/ItemSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSK\Desktop\UnityGames\RPGGame\Assets\02Script\Manager\ItemManager\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9788801D-8A48-4CFC-A989-8F3E491CC4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE8E51-198A-4F3C-B0B5-0EB8A377725F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F7A9681-B2F8-43BE-BC44-39D1B9B4ADDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F7A9681-B2F8-43BE-BC44-39D1B9B4ADDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HPPotion_Small</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>광기포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +153,10 @@
   </si>
   <si>
     <t>가죽으로 된 갑옷이라고 한다. 아무리 봐도 천인거 같은데 기분 탓인가 보다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPPotionSmall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -628,16 +628,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -657,16 +657,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -686,16 +686,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -759,12 +759,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -888,18 +888,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,14 +919,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D964537-C565-4BBF-B426-7FFA47E61A57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A3EF0E-0314-4D14-9BD6-004D8B867885}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -939,4 +931,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D964537-C565-4BBF-B426-7FFA47E61A57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Assets/02Script/Manager/ItemManager/Sheet/ItemSheet.xlsx
+++ b/Assets/02Script/Manager/ItemManager/Sheet/ItemSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSK\Desktop\UnityGames\RPGGame\Assets\02Script\Manager\ItemManager\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\GitHubGameProject\RPGGame\Assets\02Script\Manager\ItemManager\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE8E51-198A-4F3C-B0B5-0EB8A377725F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBE28B3-06DA-4566-8A0F-8C2B916A4FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F7A9681-B2F8-43BE-BC44-39D1B9B4ADDF}"/>
+    <workbookView xWindow="2625" yWindow="4740" windowWidth="21600" windowHeight="11385" xr2:uid="{9F7A9681-B2F8-43BE-BC44-39D1B9B4ADDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>HPPotionSmall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가공된 금속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachinedMatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이한 생김새로 가공된 금속이다. 어딘가에 쓰일지도?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716432F0-475A-452F-B266-653CCB7D19D4}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,6 +722,35 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -721,7 +762,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>D2:D7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -888,18 +929,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,6 +960,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D964537-C565-4BBF-B426-7FFA47E61A57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A3EF0E-0314-4D14-9BD6-004D8B867885}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -931,12 +980,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D964537-C565-4BBF-B426-7FFA47E61A57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Assets/02Script/Manager/ItemManager/Sheet/ItemSheet.xlsx
+++ b/Assets/02Script/Manager/ItemManager/Sheet/ItemSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\GitHubGameProject\RPGGame\Assets\02Script\Manager\ItemManager\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBE28B3-06DA-4566-8A0F-8C2B916A4FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881E3D0-5193-46EE-8A53-711F50D4CBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="4740" windowWidth="21600" windowHeight="11385" xr2:uid="{9F7A9681-B2F8-43BE-BC44-39D1B9B4ADDF}"/>
+    <workbookView xWindow="420" yWindow="4995" windowWidth="28800" windowHeight="15435" xr2:uid="{9F7A9681-B2F8-43BE-BC44-39D1B9B4ADDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체 HP,MP의 절반을 잃고, 5초간 ATK,DEF,SPD를 2배 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InsanityDrug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,10 @@
   </si>
   <si>
     <t>특이한 생김새로 가공된 금속이다. 어딘가에 쓰일지도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 HP,MP의 20%를 잃고, 5초간 ATK,DEF,SPD를 2배 증가한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -614,13 +614,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -669,16 +669,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -698,16 +698,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -727,16 +727,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -800,12 +800,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -815,6 +815,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E59EFFE4A08F5D44BCD6A0BBF23B1D71" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52eb78d60e92a211b5836b3c66be77d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c42b5bf93e0ffe59136b4c239f56906e">
     <xsd:element name="properties">
@@ -928,22 +943,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A3EF0E-0314-4D14-9BD6-004D8B867885}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D964537-C565-4BBF-B426-7FFA47E61A57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3FD3868-064B-40EF-8C33-48767EF2907F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -957,27 +980,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D964537-C565-4BBF-B426-7FFA47E61A57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A3EF0E-0314-4D14-9BD6-004D8B867885}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Assets/02Script/Manager/ItemManager/Sheet/ItemSheet.xlsx
+++ b/Assets/02Script/Manager/ItemManager/Sheet/ItemSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\GitHubGameProject\RPGGame\Assets\02Script\Manager\ItemManager\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881E3D0-5193-46EE-8A53-711F50D4CBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEE3BD-EEE7-4E92-B9BC-B2C9D2677410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4995" windowWidth="28800" windowHeight="15435" xr2:uid="{9F7A9681-B2F8-43BE-BC44-39D1B9B4ADDF}"/>
+    <workbookView xWindow="9615" yWindow="5265" windowWidth="18030" windowHeight="15435" xr2:uid="{9F7A9681-B2F8-43BE-BC44-39D1B9B4ADDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해골 모양이 신경쓰이는 검이다. 아저씨가 데스메탈에 심취에 있는 것은 아닐까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽옷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가죽으로 된 갑옷이라고 한다. 아무리 봐도 천인거 같은데 기분 탓인가 보다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HPPotionSmall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +161,26 @@
   </si>
   <si>
     <t>전체 HP,MP의 20%를 잃고, 5초간 ATK,DEF,SPD를 2배 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 MP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPPotionSmall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 MP의 10%를 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 모양이 신경쓰이는 검이다. 아저씨의 센스를 이해하기 힘들다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 된 갑옷이라고 한다. 만저보면 천으로 만들어져있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716432F0-475A-452F-B266-653CCB7D19D4}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -620,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -675,10 +687,10 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -698,16 +710,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -727,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -749,6 +761,35 @@
       </c>
       <c r="I7">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +803,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D7</xm:sqref>
+          <xm:sqref>D2:D8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -800,12 +841,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
